--- a/Gantt Chart Project StockTrack.xlsx
+++ b/Gantt Chart Project StockTrack.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB22916-611B-F442-AA7E-E478FE0EAF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6BC0EA-2D22-844E-BA87-DBA01417F2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
-    <sheet name="About" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Display_Week">ProjectSchedule!$E$4</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Project Start:</t>
   </si>
@@ -52,9 +51,6 @@
 TO</t>
   </si>
   <si>
-    <t>Project Management Templates</t>
-  </si>
-  <si>
     <t>START</t>
   </si>
   <si>
@@ -65,56 +61,6 @@
   </si>
   <si>
     <t>Display Week:</t>
-  </si>
-  <si>
-    <t>More Project Management Templates</t>
-  </si>
-  <si>
-    <t>About This Template</t>
-  </si>
-  <si>
-    <t>SIMPLE GANTT CHART by Vertex42.com</t>
-  </si>
-  <si>
-    <t>Additional Help</t>
-  </si>
-  <si>
-    <t>About Vertex42</t>
-  </si>
-  <si>
-    <t>Vertex42.com provides over 300 professionally designed spreadsheet templates for business, home, and education - most of which are free to download. Their collection includes a variety of calendars, planners, and schedules as well as personal finance spreadsheets for budgeting, debt reduction, and loan amortization.</t>
-  </si>
-  <si>
-    <t>Businesses will find invoices, time sheets, inventory trackers, financial statements, and project planning templates. Teachers and students will find resources such as class schedules, grade books, and attendance sheets. Organize your family life with meal planners, checklists, and exercise logs. Each template is thoroughly researched, refined, and improved over time through feedback from thousands of users.</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
-  </si>
-  <si>
-    <t>Visit Vertex42.com to download other project management templates, including different types of project schedules, Gantt charts, tasks lists, etc.</t>
-  </si>
-  <si>
-    <t>How to Use the Simple Gantt Chart</t>
-  </si>
-  <si>
-    <t>This template provides a simple way to create a Gantt chart to help visualize and track your project. Simply enter your tasks and start and end dates - no formulas required. The bars in the Gantt chart represent the duration of the task and are displayed using conditional formatting. Insert new tasks by inserting new rows.</t>
-  </si>
-  <si>
-    <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
-  </si>
-  <si>
-    <t>Project Lead</t>
-  </si>
-  <si>
-    <t>There are 2 worksheets in this workbook. 
-TimeSheet
-About
-The instructions for each worksheet are in the A column starting in cell A1 of each worksheet. They are written with hidden text. Each step guides you through the information in that row. Each subsequent step continues in cell A2, A3, and so on, unless otherwise explicitly directed. For example, instruction text might say "continue to cell A6" for the next step. 
-This hidden text will not print.
-To remove these instructions from the worksheet, simply delete column A.</t>
-  </si>
-  <si>
-    <t>Guide for Screen Readers</t>
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
@@ -210,31 +156,28 @@
     <t>Planning process</t>
   </si>
   <si>
-    <t>Goas &amp; Milestones</t>
-  </si>
-  <si>
-    <t>Developing process</t>
-  </si>
-  <si>
     <t>Brainstorm</t>
   </si>
   <si>
-    <t>Website design</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
     <t>Gantt Chart &amp; Explanation</t>
   </si>
   <si>
-    <t>CA 1 - Checkpoint 1</t>
-  </si>
-  <si>
     <t>The main purpose of the company</t>
   </si>
   <si>
     <t>Company's culture and structure</t>
+  </si>
+  <si>
+    <t>Goals &amp; Milestones</t>
+  </si>
+  <si>
+    <t>CA 2 - Checkpoint 1 Initial report</t>
+  </si>
+  <si>
+    <t>How selected the departments</t>
   </si>
 </sst>
 </file>
@@ -248,7 +191,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,49 +278,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D2129"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -397,7 +297,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,8 +358,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -579,6 +485,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -587,7 +517,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -610,7 +540,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -706,36 +636,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -776,11 +678,8 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="11" applyFont="1" applyFill="1">
@@ -792,6 +691,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -809,6 +714,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -826,7 +734,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
@@ -841,18 +749,142 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
         <vertical/>
         <horizontal/>
       </border>
@@ -953,15 +985,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="totalRow" dxfId="24"/>
+      <tableStyleElement type="firstColumn" dxfId="23"/>
+      <tableStyleElement type="lastColumn" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1052,62 +1084,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Vertex42 logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="95250"/>
-          <a:ext cx="1905000" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1376,16 +1352,16 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL24"/>
+  <dimension ref="A1:BL23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="88" zoomScaleNormal="186" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM16" sqref="AM16"/>
+      <selection pane="bottomLeft" activeCell="AZ24" sqref="AZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="33" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
@@ -1398,150 +1374,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>49</v>
+      <c r="A1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="32"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="59" t="s">
-        <v>10</v>
-      </c>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>15</v>
-      </c>
+      <c r="A2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="69" t="s">
+      <c r="A3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="68">
+      <c r="D3" s="61"/>
+      <c r="E3" s="59">
         <v>45201</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="70"/>
+      <c r="A4" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="61"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="56">
         <f>I5</f>
         <v>45201</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="65">
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="56">
         <f>P5</f>
         <v>45208</v>
       </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="65">
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="56">
         <f>W5</f>
         <v>45215</v>
       </c>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="65">
-        <f>AD5</f>
-        <v>45222</v>
-      </c>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="65">
-        <f>AK5</f>
-        <v>45229</v>
-      </c>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="65">
-        <f>AR5</f>
-        <v>45236</v>
-      </c>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66"/>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="65">
-        <f>AY5</f>
-        <v>45243</v>
-      </c>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="65">
-        <f>BF5</f>
-        <v>45250</v>
-      </c>
-      <c r="BG4" s="66"/>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="66"/>
-      <c r="BL4" s="67"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="56">
+        <f>AC5</f>
+        <v>45221</v>
+      </c>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="56">
+        <f>AJ5</f>
+        <v>45228</v>
+      </c>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="56">
+        <f>AQ5</f>
+        <v>45235</v>
+      </c>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="56">
+        <f>AX5</f>
+        <v>45242</v>
+      </c>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="57"/>
+      <c r="BB4" s="57"/>
+      <c r="BC4" s="57"/>
+      <c r="BD4" s="57"/>
+      <c r="BE4" s="58"/>
+      <c r="BF4" s="56">
+        <f>BE5</f>
+        <v>45249</v>
+      </c>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="58"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="A5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45201</v>
@@ -1551,7 +1521,7 @@
         <v>45202</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <f t="shared" ref="K5:Y5" si="0">J5+1</f>
         <v>45203</v>
       </c>
       <c r="L5" s="10">
@@ -1611,168 +1581,164 @@
         <v>45217</v>
       </c>
       <c r="Z5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Z5" si="1">Y5+1</f>
         <v>45218</v>
       </c>
       <c r="AA5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AA5" si="2">Z5+1</f>
         <v>45219</v>
       </c>
       <c r="AB5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AB5" si="3">AA5+1</f>
         <v>45220</v>
       </c>
-      <c r="AC5" s="12">
-        <f t="shared" si="0"/>
+      <c r="AC5" s="10">
+        <f t="shared" ref="AC5" si="4">AB5+1</f>
         <v>45221</v>
       </c>
-      <c r="AD5" s="11">
-        <f>AC5+1</f>
+      <c r="AD5" s="10">
+        <f t="shared" ref="AD5" si="5">AC5+1</f>
         <v>45222</v>
       </c>
       <c r="AE5" s="10">
-        <f>AD5+1</f>
+        <f t="shared" ref="AE5" si="6">AD5+1</f>
         <v>45223</v>
       </c>
       <c r="AF5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AF5" si="7">AE5+1</f>
         <v>45224</v>
       </c>
       <c r="AG5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AG5" si="8">AF5+1</f>
         <v>45225</v>
       </c>
       <c r="AH5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH5" si="9">AG5+1</f>
         <v>45226</v>
       </c>
       <c r="AI5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AI5" si="10">AH5+1</f>
         <v>45227</v>
       </c>
-      <c r="AJ5" s="12">
-        <f t="shared" si="0"/>
+      <c r="AJ5" s="10">
+        <f t="shared" ref="AJ5" si="11">AI5+1</f>
         <v>45228</v>
       </c>
-      <c r="AK5" s="11">
-        <f>AJ5+1</f>
+      <c r="AK5" s="10">
+        <f t="shared" ref="AK5" si="12">AJ5+1</f>
         <v>45229</v>
       </c>
       <c r="AL5" s="10">
-        <f>AK5+1</f>
+        <f t="shared" ref="AL5" si="13">AK5+1</f>
         <v>45230</v>
       </c>
       <c r="AM5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AM5" si="14">AL5+1</f>
         <v>45231</v>
       </c>
       <c r="AN5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AN5" si="15">AM5+1</f>
         <v>45232</v>
       </c>
       <c r="AO5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AO5" si="16">AN5+1</f>
         <v>45233</v>
       </c>
       <c r="AP5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AP5" si="17">AO5+1</f>
         <v>45234</v>
       </c>
-      <c r="AQ5" s="12">
-        <f t="shared" si="0"/>
+      <c r="AQ5" s="10">
+        <f t="shared" ref="AQ5" si="18">AP5+1</f>
         <v>45235</v>
       </c>
-      <c r="AR5" s="11">
-        <f>AQ5+1</f>
+      <c r="AR5" s="10">
+        <f t="shared" ref="AR5" si="19">AQ5+1</f>
         <v>45236</v>
       </c>
       <c r="AS5" s="10">
-        <f>AR5+1</f>
+        <f t="shared" ref="AS5" si="20">AR5+1</f>
         <v>45237</v>
       </c>
       <c r="AT5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AT5" si="21">AS5+1</f>
         <v>45238</v>
       </c>
       <c r="AU5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AU5" si="22">AT5+1</f>
         <v>45239</v>
       </c>
       <c r="AV5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AV5" si="23">AU5+1</f>
         <v>45240</v>
       </c>
       <c r="AW5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AW5" si="24">AV5+1</f>
         <v>45241</v>
       </c>
-      <c r="AX5" s="12">
-        <f t="shared" si="0"/>
+      <c r="AX5" s="10">
+        <f t="shared" ref="AX5" si="25">AW5+1</f>
         <v>45242</v>
       </c>
-      <c r="AY5" s="11">
-        <f>AX5+1</f>
+      <c r="AY5" s="10">
+        <f t="shared" ref="AY5" si="26">AX5+1</f>
         <v>45243</v>
       </c>
       <c r="AZ5" s="10">
-        <f>AY5+1</f>
+        <f t="shared" ref="AZ5" si="27">AY5+1</f>
         <v>45244</v>
       </c>
       <c r="BA5" s="10">
-        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+        <f t="shared" ref="BA5" si="28">AZ5+1</f>
         <v>45245</v>
       </c>
       <c r="BB5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="BB5" si="29">BA5+1</f>
         <v>45246</v>
       </c>
       <c r="BC5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="BC5" si="30">BB5+1</f>
         <v>45247</v>
       </c>
       <c r="BD5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="BD5" si="31">BC5+1</f>
         <v>45248</v>
       </c>
-      <c r="BE5" s="12">
-        <f t="shared" si="1"/>
+      <c r="BE5" s="10">
+        <f t="shared" ref="BE5" si="32">BD5+1</f>
         <v>45249</v>
       </c>
-      <c r="BF5" s="11">
-        <f>BE5+1</f>
+      <c r="BF5" s="10">
+        <f t="shared" ref="BF5" si="33">BE5+1</f>
         <v>45250</v>
       </c>
       <c r="BG5" s="10">
-        <f>BF5+1</f>
+        <f t="shared" ref="BG5" si="34">BF5+1</f>
         <v>45251</v>
       </c>
       <c r="BH5" s="10">
-        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+        <f t="shared" ref="BH5" si="35">BG5+1</f>
         <v>45252</v>
       </c>
       <c r="BI5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="BI5" si="36">BH5+1</f>
         <v>45253</v>
       </c>
       <c r="BJ5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="BJ5" si="37">BI5+1</f>
         <v>45254</v>
       </c>
       <c r="BK5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="BK5" si="38">BJ5+1</f>
         <v>45255</v>
-      </c>
-      <c r="BL5" s="12">
-        <f t="shared" si="2"/>
-        <v>45256</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>28</v>
+      <c r="A6" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1781,245 +1747,241 @@
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="39">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:Z6" si="40">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>W</v>
       </c>
       <c r="L6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>T</v>
       </c>
       <c r="M6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>F</v>
       </c>
       <c r="N6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>S</v>
       </c>
       <c r="O6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>S</v>
       </c>
       <c r="P6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>M</v>
       </c>
       <c r="Q6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>T</v>
       </c>
       <c r="R6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>W</v>
       </c>
       <c r="S6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>T</v>
       </c>
       <c r="T6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>F</v>
       </c>
       <c r="U6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>S</v>
       </c>
       <c r="V6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>S</v>
       </c>
       <c r="W6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>M</v>
       </c>
       <c r="X6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>T</v>
       </c>
       <c r="Y6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>W</v>
       </c>
       <c r="Z6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="40"/>
         <v>T</v>
       </c>
       <c r="AA6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AA6:AQ6" si="41">LEFT(TEXT(AA5,"ddd"),1)</f>
         <v>F</v>
       </c>
       <c r="AB6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>S</v>
       </c>
       <c r="AC6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>S</v>
       </c>
       <c r="AD6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>M</v>
       </c>
       <c r="AE6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>T</v>
       </c>
       <c r="AF6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>W</v>
       </c>
       <c r="AG6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>T</v>
       </c>
       <c r="AH6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>F</v>
       </c>
       <c r="AI6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>S</v>
       </c>
       <c r="AK6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>M</v>
       </c>
       <c r="AL6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>T</v>
       </c>
       <c r="AM6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>W</v>
       </c>
       <c r="AN6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>T</v>
       </c>
       <c r="AO6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>F</v>
       </c>
       <c r="AP6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="41"/>
         <v>S</v>
       </c>
       <c r="AR6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AR6:BK6" si="42">LEFT(TEXT(AR5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" si="42"/>
         <v>T</v>
       </c>
       <c r="AT6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>W</v>
       </c>
       <c r="AU6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>T</v>
       </c>
       <c r="AV6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>F</v>
       </c>
       <c r="AW6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>S</v>
       </c>
       <c r="AX6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>S</v>
       </c>
       <c r="AY6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>M</v>
       </c>
       <c r="AZ6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>T</v>
       </c>
       <c r="BA6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>W</v>
       </c>
       <c r="BB6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>T</v>
       </c>
       <c r="BC6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>F</v>
       </c>
       <c r="BD6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>S</v>
       </c>
       <c r="BE6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>S</v>
       </c>
       <c r="BF6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>M</v>
       </c>
       <c r="BG6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>T</v>
       </c>
       <c r="BH6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>W</v>
       </c>
       <c r="BI6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>T</v>
       </c>
       <c r="BJ6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>F</v>
       </c>
       <c r="BK6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BL6" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="42"/>
         <v>S</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="45"/>
+      <c r="A7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="35"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2042,7 +2004,7 @@
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
+      <c r="Z7" s="54"/>
       <c r="AA7" s="30"/>
       <c r="AB7" s="30"/>
       <c r="AC7" s="30"/>
@@ -2080,24 +2042,23 @@
       <c r="BI7" s="30"/>
       <c r="BJ7" s="30"/>
       <c r="BK7" s="30"/>
-      <c r="BL7" s="30"/>
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>29</v>
+      <c r="A8" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H23" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H22" si="43">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="30"/>
@@ -2117,7 +2078,7 @@
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
+      <c r="Z8" s="55"/>
       <c r="AA8" s="30"/>
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
@@ -2155,30 +2116,29 @@
       <c r="BI8" s="30"/>
       <c r="BJ8" s="30"/>
       <c r="BK8" s="30"/>
-      <c r="BL8" s="30"/>
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="52"/>
+      <c r="A9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="42"/>
       <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="39">
         <f>Project_Start</f>
         <v>45201</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="39">
         <f>E9+2</f>
         <v>45203</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="I9" s="30"/>
@@ -2236,30 +2196,29 @@
       <c r="BI9" s="30"/>
       <c r="BJ9" s="30"/>
       <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="52"/>
+      <c r="A10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="42"/>
       <c r="D10" s="19">
         <v>1</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="39">
         <f>F9</f>
         <v>45203</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="39">
         <f>E10+6</f>
         <v>45209</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="43"/>
         <v>7</v>
       </c>
       <c r="I10" s="30"/>
@@ -2317,28 +2276,27 @@
       <c r="BI10" s="30"/>
       <c r="BJ10" s="30"/>
       <c r="BK10" s="30"/>
-      <c r="BL10" s="30"/>
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="52"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="42"/>
       <c r="D11" s="19">
         <v>1</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="39">
         <f>F10</f>
         <v>45209</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="39">
         <f>E11+4</f>
         <v>45213</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="I11" s="30"/>
@@ -2396,30 +2354,26 @@
       <c r="BI11" s="30"/>
       <c r="BJ11" s="30"/>
       <c r="BK11" s="30"/>
-      <c r="BL11" s="30"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="52"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="42"/>
       <c r="D12" s="19">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E12" s="49">
+        <v>1</v>
+      </c>
+      <c r="E12" s="39">
         <f>F11</f>
         <v>45213</v>
       </c>
-      <c r="F12" s="49">
-        <f>E12+7</f>
-        <v>45220</v>
+      <c r="F12" s="39">
+        <f>F11+5</f>
+        <v>45218</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="14">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
+      <c r="H12" s="14"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
@@ -2436,7 +2390,7 @@
       <c r="V12" s="30"/>
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
-      <c r="Y12" s="31"/>
+      <c r="Y12" s="62"/>
       <c r="Z12" s="30"/>
       <c r="AA12" s="30"/>
       <c r="AB12" s="30"/>
@@ -2475,25 +2429,28 @@
       <c r="BI12" s="30"/>
       <c r="BJ12" s="30"/>
       <c r="BK12" s="30"/>
-      <c r="BL12" s="30"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="39">
+        <f>F11</f>
+        <v>45213</v>
+      </c>
+      <c r="F13" s="39">
+        <f>E13+7</f>
+        <v>45220</v>
+      </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H13" s="14">
+        <f t="shared" si="43"/>
+        <v>8</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
@@ -2511,7 +2468,7 @@
       <c r="V13" s="30"/>
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
+      <c r="Y13" s="31"/>
       <c r="Z13" s="30"/>
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
@@ -2550,28 +2507,24 @@
       <c r="BI13" s="30"/>
       <c r="BJ13" s="30"/>
       <c r="BK13" s="30"/>
-      <c r="BL13" s="30"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="24">
-        <v>1</v>
-      </c>
-      <c r="E14" s="50">
-        <v>45201</v>
-      </c>
-      <c r="F14" s="50">
-        <f>E14+2</f>
-        <v>45203</v>
-      </c>
+      <c r="A14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="14">
-        <f t="shared" si="6"/>
-        <v>3</v>
+      <c r="H14" s="14" t="str">
+        <f t="shared" si="43"/>
+        <v/>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
@@ -2628,29 +2581,27 @@
       <c r="BI14" s="30"/>
       <c r="BJ14" s="30"/>
       <c r="BK14" s="30"/>
-      <c r="BL14" s="30"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="53"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="43"/>
       <c r="D15" s="24">
-        <v>0</v>
-      </c>
-      <c r="E15" s="50">
-        <f>E14+2</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="40">
+        <v>45201</v>
+      </c>
+      <c r="F15" s="40">
+        <f>E15+2</f>
         <v>45203</v>
-      </c>
-      <c r="F15" s="50">
-        <f>E15+5</f>
-        <v>45208</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="43"/>
+        <v>3</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
@@ -2664,8 +2615,8 @@
       <c r="R15" s="30"/>
       <c r="S15" s="30"/>
       <c r="T15" s="30"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
       <c r="Y15" s="30"/>
@@ -2707,29 +2658,28 @@
       <c r="BI15" s="30"/>
       <c r="BJ15" s="30"/>
       <c r="BK15" s="30"/>
-      <c r="BL15" s="30"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="53"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="43"/>
       <c r="D16" s="24">
-        <v>0</v>
-      </c>
-      <c r="E16" s="50">
-        <f>F15</f>
-        <v>45208</v>
-      </c>
-      <c r="F16" s="50">
-        <f>E16+3</f>
-        <v>45211</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="40">
+        <f>E15+2</f>
+        <v>45203</v>
+      </c>
+      <c r="F16" s="40">
+        <f>E16+6</f>
+        <v>45209</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="43"/>
+        <v>7</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
@@ -2743,8 +2693,8 @@
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
       <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
       <c r="W16" s="30"/>
       <c r="X16" s="30"/>
       <c r="Y16" s="30"/>
@@ -2786,29 +2736,28 @@
       <c r="BI16" s="30"/>
       <c r="BJ16" s="30"/>
       <c r="BK16" s="30"/>
-      <c r="BL16" s="30"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="53"/>
+    <row r="17" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="43"/>
       <c r="D17" s="24">
-        <v>0</v>
-      </c>
-      <c r="E17" s="50">
-        <f>E16</f>
-        <v>45208</v>
-      </c>
-      <c r="F17" s="50">
-        <f>E17+2</f>
-        <v>45210</v>
+        <v>1</v>
+      </c>
+      <c r="E17" s="40">
+        <f>F16</f>
+        <v>45209</v>
+      </c>
+      <c r="F17" s="40">
+        <f>E17+5</f>
+        <v>45214</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="43"/>
+        <v>6</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
@@ -2826,7 +2775,7 @@
       <c r="V17" s="30"/>
       <c r="W17" s="30"/>
       <c r="X17" s="30"/>
-      <c r="Y17" s="31"/>
+      <c r="Y17" s="30"/>
       <c r="Z17" s="30"/>
       <c r="AA17" s="30"/>
       <c r="AB17" s="30"/>
@@ -2865,27 +2814,28 @@
       <c r="BI17" s="30"/>
       <c r="BJ17" s="30"/>
       <c r="BK17" s="30"/>
-      <c r="BL17" s="30"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="53"/>
+    <row r="18" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="43"/>
       <c r="D18" s="24">
-        <v>0</v>
-      </c>
-      <c r="E18" s="50">
-        <f>E17</f>
-        <v>45208</v>
-      </c>
-      <c r="F18" s="50">
-        <f>E18+3</f>
-        <v>45211</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="40">
+        <f>F17</f>
+        <v>45214</v>
+      </c>
+      <c r="F18" s="40">
+        <f>E18+6</f>
+        <v>45220</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="43"/>
+        <v>7</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -2903,7 +2853,7 @@
       <c r="V18" s="30"/>
       <c r="W18" s="30"/>
       <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
+      <c r="Y18" s="31"/>
       <c r="Z18" s="30"/>
       <c r="AA18" s="30"/>
       <c r="AB18" s="30"/>
@@ -2942,24 +2892,23 @@
       <c r="BI18" s="30"/>
       <c r="BJ18" s="30"/>
       <c r="BK18" s="30"/>
-      <c r="BL18" s="30"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+    <row r="19" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>36</v>
+      <c r="C19" s="53" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="28"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I19" s="30"/>
@@ -3017,27 +2966,26 @@
       <c r="BI19" s="30"/>
       <c r="BJ19" s="30"/>
       <c r="BK19" s="30"/>
-      <c r="BL19" s="30"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="54"/>
+    <row r="20" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="44"/>
       <c r="D20" s="29">
         <v>1</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="41">
         <v>45201</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="41">
         <f>E20+2</f>
         <v>45203</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="I20" s="30"/>
@@ -3095,28 +3043,27 @@
       <c r="BI20" s="30"/>
       <c r="BJ20" s="30"/>
       <c r="BK20" s="30"/>
-      <c r="BL20" s="30"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="54"/>
+    <row r="21" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="44"/>
       <c r="D21" s="29">
-        <v>0</v>
-      </c>
-      <c r="E21" s="51">
+        <v>1</v>
+      </c>
+      <c r="E21" s="41">
         <f>F20+1</f>
         <v>45204</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="41">
         <f>E21+4</f>
         <v>45208</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="I21" s="30"/>
@@ -3174,29 +3121,28 @@
       <c r="BI21" s="30"/>
       <c r="BJ21" s="30"/>
       <c r="BK21" s="30"/>
-      <c r="BL21" s="30"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="54"/>
+    <row r="22" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="44"/>
       <c r="D22" s="29">
         <v>0</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="41">
         <f>E21+5</f>
         <v>45209</v>
       </c>
-      <c r="F22" s="51">
-        <f>E22+5</f>
-        <v>45214</v>
+      <c r="F22" s="41">
+        <f>E22+11</f>
+        <v>45220</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="43"/>
+        <v>12</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
@@ -3214,7 +3160,7 @@
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
       <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
+      <c r="Y22" s="62"/>
       <c r="Z22" s="30"/>
       <c r="AA22" s="30"/>
       <c r="AB22" s="30"/>
@@ -3253,89 +3199,9 @@
       <c r="BI22" s="30"/>
       <c r="BJ22" s="30"/>
       <c r="BK22" s="30"/>
-      <c r="BL22" s="30"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="29">
-        <v>0</v>
-      </c>
-      <c r="E23" s="51">
-        <f>F22+1</f>
-        <v>45215</v>
-      </c>
-      <c r="F23" s="51">
-        <f>E23+4</f>
-        <v>45219</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
-      <c r="AQ23" s="30"/>
-      <c r="AR23" s="30"/>
-      <c r="AS23" s="30"/>
-      <c r="AT23" s="30"/>
-      <c r="AU23" s="30"/>
-      <c r="AV23" s="30"/>
-      <c r="AW23" s="30"/>
-      <c r="AX23" s="30"/>
-      <c r="AY23" s="30"/>
-      <c r="AZ23" s="30"/>
-      <c r="BA23" s="30"/>
-      <c r="BB23" s="30"/>
-      <c r="BC23" s="30"/>
-      <c r="BD23" s="30"/>
-      <c r="BE23" s="30"/>
-      <c r="BF23" s="30"/>
-      <c r="BG23" s="30"/>
-      <c r="BH23" s="30"/>
-      <c r="BI23" s="30"/>
-      <c r="BJ23" s="30"/>
-      <c r="BK23" s="30"/>
-      <c r="BL23" s="30"/>
-    </row>
-    <row r="24" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G24" s="6"/>
+    <row r="23" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3351,12 +3217,12 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D23">
+  <conditionalFormatting sqref="D7:D22">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -3365,36 +3231,45 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL23">
-    <cfRule type="expression" dxfId="2" priority="33">
+  <conditionalFormatting sqref="I5:X22 Z6:BK22">
+    <cfRule type="expression" dxfId="5" priority="33" stopIfTrue="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL23">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="I7:X22 Z7:BK22">
+    <cfRule type="expression" dxfId="4" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="Z5:BK5 Y5:Y22">
+    <cfRule type="expression" dxfId="2" priority="36">
+      <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7:Y22">
+    <cfRule type="expression" dxfId="1" priority="41" stopIfTrue="1">
+      <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="42" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Y$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F17 F21:F22 E22" formula="1"/>
+    <ignoredError sqref="F21 E22" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3412,113 +3287,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D23</xm:sqref>
+          <xm:sqref>D7:D22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="87.1640625" style="33" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="34"/>
-    </row>
-    <row r="3" spans="1:2" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="40"/>
-    </row>
-    <row r="4" spans="1:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="33" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="33" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="33" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-</worksheet>
 </file>